--- a/temp/all_VAE_Evaluation.xlsx
+++ b/temp/all_VAE_Evaluation.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E4E5F6-0843-4547-981C-568269179BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3E7C0D-E1B2-48FD-9C80-C2D9BFFAD853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F7439B-267F-4B8E-A5FC-72675B097BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>VAE</t>
     <phoneticPr fontId="1"/>
@@ -169,6 +168,10 @@
     <t>0.5 * MSE
 + 10 * CD
  + 0.4 * KLD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISAB+VQ-VAE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -180,7 +183,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0.E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,12 +227,6 @@
       <name val="BIZ UDPゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,9 +302,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,18 +640,18 @@
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -680,8 +674,11 @@
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>25</v>
@@ -704,8 +701,11 @@
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -728,8 +728,11 @@
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="40.5">
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -752,8 +755,11 @@
       <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -776,8 +782,11 @@
       <c r="I6" s="5">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -805,9 +814,12 @@
       <c r="I7" s="7">
         <v>1.8792469054460501E-2</v>
       </c>
+      <c r="J7" s="7">
+        <v>1.15628242492675E-2</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -832,8 +844,11 @@
       <c r="I8" s="7">
         <v>2.08070501685142E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8" s="7">
+        <v>1.1188229545950799E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -858,9 +873,12 @@
       <c r="I9" s="7">
         <v>1.0530204512178801E-2</v>
       </c>
+      <c r="J9" s="7">
+        <v>5.1480401307344402E-3</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -885,8 +903,11 @@
       <c r="I10" s="7">
         <v>1.29958614706993E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="7">
+        <v>3.52404359728097E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -911,9 +932,12 @@
       <c r="I11" s="7">
         <v>1.8770823255181299E-2</v>
       </c>
+      <c r="J11" s="7">
+        <v>9.4071067869663204E-3</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -938,8 +962,11 @@
       <c r="I12" s="7">
         <v>1.2105030938982899E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="7">
+        <v>8.7062641978263803E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -964,8 +991,11 @@
       <c r="I13" s="7">
         <v>1.05590550228953E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="7">
+        <v>1.19096059352159E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -990,8 +1020,11 @@
       <c r="I14" s="7">
         <v>1.34980464354157E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="7">
+        <v>1.25088253989815E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1016,38 +1049,45 @@
       <c r="I15" s="7">
         <v>2.5788333266973398E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="7">
+        <v>1.6570456326007801E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="9">
-        <f>AVERAGE(D7:D15)</f>
+        <f t="shared" ref="D16:J16" si="0">AVERAGE(D7:D15)</f>
         <v>3.192252334621213E-2</v>
       </c>
       <c r="E16" s="9">
-        <f>AVERAGE(E7:E15)</f>
+        <f t="shared" si="0"/>
         <v>2.440196958680942E-2</v>
       </c>
       <c r="F16" s="9">
-        <f>AVERAGE(F7:F15)</f>
+        <f t="shared" si="0"/>
         <v>2.1952274876336213E-2</v>
       </c>
       <c r="G16" s="9">
-        <f>AVERAGE(G7:G15)</f>
+        <f t="shared" si="0"/>
         <v>2.0764140619171954E-2</v>
       </c>
       <c r="H16" s="9">
-        <f>AVERAGE(H7:H15)</f>
+        <f t="shared" si="0"/>
         <v>2.0010187808010289E-2</v>
       </c>
       <c r="I16" s="9">
-        <f>AVERAGE(I7:I15)</f>
+        <f t="shared" si="0"/>
         <v>1.5982986013922378E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0058377352025735E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1075,8 +1115,11 @@
       <c r="I17" s="7">
         <v>1.3467135712868899E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="7">
+        <v>6.8302758924348702E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1101,8 +1144,11 @@
       <c r="I18" s="7">
         <v>1.15720242202946E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="7">
+        <v>5.7652107376487804E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1127,8 +1173,11 @@
       <c r="I19" s="7">
         <v>5.48507568686775E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="7">
+        <v>2.5952945057967302E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1153,8 +1202,11 @@
       <c r="I20" s="7">
         <v>6.88064359982965E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="7">
+        <v>1.76475785273039E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1231,11 @@
       <c r="I21" s="7">
         <v>1.04203371090333E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="7">
+        <v>4.8091768489054399E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1205,8 +1260,11 @@
       <c r="I22" s="7">
         <v>6.9842873435478703E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="7">
+        <v>4.7155248096306798E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1231,8 +1289,11 @@
       <c r="I23" s="7">
         <v>5.4467578188112696E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="7">
+        <v>6.2076396486829E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1257,8 +1318,11 @@
       <c r="I24" s="7">
         <v>7.5888044311931899E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="7">
+        <v>6.8593812371329803E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1283,199 +1347,42 @@
       <c r="I25" s="7">
         <v>1.5661345043951599E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="7">
+        <v>9.07115102257928E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="9">
-        <f>AVERAGE(D17:D25)</f>
+        <f t="shared" ref="D26:J26" si="1">AVERAGE(D17:D25)</f>
         <v>2.3310666354757422E-2</v>
       </c>
       <c r="E26" s="9">
-        <f>AVERAGE(E17:E25)</f>
+        <f t="shared" si="1"/>
         <v>1.5541982189108048E-2</v>
       </c>
       <c r="F26" s="9">
-        <f>AVERAGE(F17:F25)</f>
+        <f t="shared" si="1"/>
         <v>1.3570760579453778E-2</v>
       </c>
       <c r="G26" s="9">
-        <f>AVERAGE(G17:G25)</f>
+        <f t="shared" si="1"/>
         <v>1.3295068579383512E-2</v>
       </c>
       <c r="H26" s="9">
-        <f>AVERAGE(H17:H25)</f>
+        <f t="shared" si="1"/>
         <v>1.2221730763110486E-2</v>
       </c>
       <c r="I26" s="9">
-        <f>AVERAGE(I17:I25)</f>
+        <f t="shared" si="1"/>
         <v>9.278490107377569E-3</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B96F6CD-E578-44C4-9C74-D1B5375868E6}">
-  <dimension ref="B2:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="10">
-        <v>1.6551405191421498E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.71701870858669E-2</v>
-      </c>
-      <c r="D2">
-        <v>2.2635754197835901E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.56378652900457E-2</v>
-      </c>
-      <c r="F2">
-        <v>2.2325670346617699E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.31064262241125E-2</v>
-      </c>
-      <c r="H2">
-        <v>2.0539609715342501E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.72328688204288E-2</v>
-      </c>
-      <c r="J2">
-        <v>3.4891903400421101E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="10">
-        <v>1.6551405191421498E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5">
-        <v>1.71701870858669E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6">
-        <v>2.2635754197835901E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7">
-        <v>1.56378652900457E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8">
-        <v>2.2325670346617699E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9">
-        <v>1.31064262241125E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10">
-        <v>2.0539609715342501E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11">
-        <v>1.72328688204288E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12">
-        <v>3.4891903400421101E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="10">
-        <v>1.11547092672935E-2</v>
-      </c>
-      <c r="C14">
-        <v>9.2790763753745602E-3</v>
-      </c>
-      <c r="D14">
-        <v>1.3973435833394001E-2</v>
-      </c>
-      <c r="E14">
-        <v>8.6161178697950896E-3</v>
-      </c>
-      <c r="F14">
-        <v>1.32042338322128E-2</v>
-      </c>
-      <c r="G14">
-        <v>7.9078245150393193E-3</v>
-      </c>
-      <c r="H14">
-        <v>1.17772190390379E-2</v>
-      </c>
-      <c r="I14">
-        <v>1.0298501024299101E-2</v>
-      </c>
-      <c r="J14">
-        <v>2.3784459111548101E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="10">
-        <v>1.11547092672935E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17">
-        <v>9.2790763753745602E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <v>1.3973435833394001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19">
-        <v>8.6161178697950896E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20">
-        <v>1.32042338322128E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21">
-        <v>7.9078245150393193E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22">
-        <v>1.17772190390379E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23">
-        <v>1.0298501024299101E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24">
-        <v>2.3784459111548101E-2</v>
+      <c r="J26" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4020458395046718E-3</v>
       </c>
     </row>
   </sheetData>
